--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729395.6118553681</v>
+        <v>-731283.1933717696</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>458121.2793892196</v>
+        <v>150702.9558350233</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>133.1884124801514</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>174.7915664508558</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984493</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>27.45481249848806</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>230.2634979541062</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>296.0632543033371</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>242.2866730943829</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.91827500188584</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>126.3298627762801</v>
       </c>
     </row>
     <row r="8">
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>204.1325253095396</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>300.706462872336</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>153.5420247171312</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>157.2874061841565</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520909</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>73.31767254005749</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>181.5016905511568</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>225.5263167199797</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>138.1387823091071</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>15.79632478932047</v>
       </c>
       <c r="W22" t="n">
-        <v>127.6049065470965</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.88023140885733</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>103.3388316365581</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634778</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532049</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>85.72292696797135</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>3.522546109382392</v>
+        <v>93.41221638965541</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801223</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>55.34730715622589</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897918</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523568</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463243</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
         <v>42.2873553346313</v>
@@ -3481,7 +3481,7 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941882</v>
       </c>
       <c r="W37" t="n">
         <v>218.3911082069503</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463136</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1152.640269254487</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C2" t="n">
-        <v>783.6777523140754</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D2" t="n">
-        <v>783.6777523140754</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>397.8894997158312</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4325,16 +4325,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4343,7 +4343,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
         <v>2544.691559791253</v>
@@ -4355,7 +4355,7 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834949</v>
@@ -4364,13 +4364,13 @@
         <v>2247.308246834949</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491379</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491379</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230299</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y2" t="n">
         <v>1152.640269254487</v>
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036447</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,7 +4495,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
         <v>529.6040388502502</v>
@@ -4504,34 +4504,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245973</v>
+        <v>670.9799312231997</v>
       </c>
       <c r="T4" t="n">
-        <v>286.532373693199</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="U4" t="n">
-        <v>286.532373693199</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036447</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036447</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036447</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036447</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1485.892406545185</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="C5" t="n">
-        <v>1485.892406545185</v>
+        <v>1644.355031464126</v>
       </c>
       <c r="D5" t="n">
-        <v>1127.626707938434</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>1127.626707938434</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>716.640803148827</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>298.6769950470139</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.892406545185</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485.892406545185</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.0633493392342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>257.0633493392342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>257.0633493392342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>257.0633493392342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>257.0633493392342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.0633493392342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.31497677176429</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694738</v>
+        <v>181.548903816607</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1589.347031634719</v>
+        <v>1196.778435292678</v>
       </c>
       <c r="C8" t="n">
-        <v>1589.347031634719</v>
+        <v>1196.778435292678</v>
       </c>
       <c r="D8" t="n">
-        <v>1231.081333027968</v>
+        <v>838.5127366859274</v>
       </c>
       <c r="E8" t="n">
-        <v>845.2930804297239</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>838.3475796805204</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674652</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="Y8" t="n">
-        <v>1975.94687169884</v>
+        <v>1583.3782753568</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4884,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4981,28 +4981,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036446</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>784.1783943330314</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1552.546540725493</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N12" t="n">
-        <v>1897.067196363111</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O12" t="n">
-        <v>2145.820610447073</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.7175987609741</v>
+        <v>571.6642370999779</v>
       </c>
       <c r="C13" t="n">
-        <v>506.7814158330672</v>
+        <v>402.728054172071</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>402.728054172071</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>402.728054172071</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>402.728054172071</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1340.040102695118</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1340.040102695118</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1085.355614489231</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>1085.355614489231</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X13" t="n">
-        <v>857.3660635912138</v>
+        <v>792.4568162435041</v>
       </c>
       <c r="Y13" t="n">
-        <v>857.3660635912138</v>
+        <v>571.6642370999779</v>
       </c>
     </row>
     <row r="14">
@@ -5267,58 +5267,58 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>495.7418540215911</v>
       </c>
       <c r="L15" t="n">
-        <v>452.5377573864724</v>
+        <v>1109.63892377848</v>
       </c>
       <c r="M15" t="n">
-        <v>772.8730769161741</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N15" t="n">
-        <v>1559.410052240715</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>879.2482765610113</v>
+        <v>468.2819334614992</v>
       </c>
       <c r="C16" t="n">
-        <v>710.3120936331044</v>
+        <v>468.2819334614992</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207686</v>
+        <v>318.1652940491634</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383755</v>
+        <v>318.1652940491634</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>171.2753465512531</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>171.2753465512531</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>171.2753465512531</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1315.581229597138</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1315.581229597138</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>1060.896741391251</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W16" t="n">
-        <v>1060.896741391251</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X16" t="n">
-        <v>1060.896741391251</v>
+        <v>870.7229774352688</v>
       </c>
       <c r="Y16" t="n">
-        <v>1060.896741391251</v>
+        <v>649.9303982917389</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,49 +5498,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>132.6950075228693</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>543.585276367382</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>773.5483822357312</v>
       </c>
       <c r="M18" t="n">
-        <v>754.9984739765641</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N18" t="n">
-        <v>1559.410052240715</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>414.0663679705859</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267567</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>816.5074119443557</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X19" t="n">
-        <v>816.5074119443557</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y19" t="n">
-        <v>595.7148328008255</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>388.8958536704856</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>754.9984739765641</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M21" t="n">
-        <v>754.9984739765641</v>
+        <v>1218.836734765611</v>
       </c>
       <c r="N21" t="n">
-        <v>1559.410052240715</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.5712828402495</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123426</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>770.1263228509424</v>
       </c>
       <c r="W22" t="n">
-        <v>826.2092985685066</v>
+        <v>770.1263228509424</v>
       </c>
       <c r="X22" t="n">
-        <v>598.2197476704893</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y22" t="n">
-        <v>598.2197476704893</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5984,55 +5984,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M24" t="n">
-        <v>629.3975440735812</v>
+        <v>1009.263896089484</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.809122337732</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>711.072954880832</v>
+        <v>564.1830073829217</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="V25" t="n">
-        <v>955.103143565574</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="W25" t="n">
-        <v>955.103143565574</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X25" t="n">
-        <v>727.1135926675565</v>
+        <v>966.6240513566916</v>
       </c>
       <c r="Y25" t="n">
-        <v>727.1135926675565</v>
+        <v>745.8314722131614</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028581</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028581</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028581</v>
+        <v>688.9285765597825</v>
       </c>
       <c r="M27" t="n">
-        <v>629.3975440735812</v>
+        <v>1009.263896089484</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.809122337732</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028581</v>
+        <v>266.1532743881929</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765182</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706313</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028581</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028581</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="29">
@@ -6443,55 +6443,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028583</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028583</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M30" t="n">
-        <v>417.5524109899876</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N30" t="n">
-        <v>1221.963989254138</v>
+        <v>1731.747761568914</v>
       </c>
       <c r="O30" t="n">
-        <v>1891.427750556797</v>
+        <v>2401.211522871574</v>
       </c>
       <c r="P30" t="n">
-        <v>2411.728372292545</v>
+        <v>2583.855000484925</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030882</v>
+        <v>659.8783819731794</v>
       </c>
       <c r="C31" t="n">
-        <v>452.2447118565519</v>
+        <v>546.7030643266432</v>
       </c>
       <c r="D31" t="n">
-        <v>448.6865844733379</v>
+        <v>452.3472901956781</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723156</v>
+        <v>360.1950618946556</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557761</v>
+        <v>304.288691029781</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569675</v>
+        <v>191.8742346309719</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962047</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252996</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1623.942368323873</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1390.574594818801</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1191.650971894285</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818941</v>
+        <v>957.9946671386953</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652476</v>
+        <v>785.7659815220485</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030882</v>
+        <v>785.7659815220485</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6686,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>711.1141612171746</v>
+        <v>992.4681079703662</v>
       </c>
       <c r="M33" t="n">
-        <v>1479.482307609636</v>
+        <v>1760.836254362828</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.893885873787</v>
+        <v>1760.836254362828</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110834</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229682</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506736</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083216</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504523</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210314</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982984</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,49 +6859,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045216</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010326</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>305.5184067620362</v>
       </c>
       <c r="L36" t="n">
-        <v>1050.793780719526</v>
+        <v>535.4815126303854</v>
       </c>
       <c r="M36" t="n">
-        <v>1819.161927111988</v>
+        <v>1303.849659022847</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254958</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1050.793780719526</v>
+        <v>999.2632410381163</v>
       </c>
       <c r="M39" t="n">
-        <v>1819.161927111988</v>
+        <v>1767.631387430578</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,7 +7409,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7421,40 +7421,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="M42" t="n">
-        <v>417.5524109899876</v>
+        <v>542.909971047825</v>
       </c>
       <c r="N42" t="n">
-        <v>1221.963989254138</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103122</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747164</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>416.0667914132674</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9735,10 +9735,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298111</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9972,10 +9972,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>169.3640900394692</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,13 +10437,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>234.1044234245736</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>12.95154374624641</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>64.2601548742328</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>37.1015729242145</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>40.04587050723245</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>60.99668161661126</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>87.57087307993011</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,19 +24175,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>236.3413185345075</v>
       </c>
       <c r="W22" t="n">
-        <v>158.9180917894945</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.95174877308</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,16 +24412,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>182.8985207620193</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338611</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>139.9867284210658</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>89.88967028027284</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>34.87048423814842</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571505</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523585</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-7.46078767100878e-13</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1192638.632200012</v>
+        <v>1192638.632200013</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194637</v>
@@ -26320,7 +26320,7 @@
         <v>184734.3982194637</v>
       </c>
       <c r="E2" t="n">
-        <v>175963.0768819689</v>
+        <v>175963.076881969</v>
       </c>
       <c r="F2" t="n">
         <v>175963.0768819689</v>
@@ -26344,7 +26344,7 @@
         <v>184734.3982194641</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194641</v>
+        <v>184734.398219464</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194641</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145448</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284555</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086697</v>
+        <v>10342.906800867</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284551</v>
       </c>
     </row>
     <row r="4">
@@ -26418,40 +26418,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758286</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758372</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905759102</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758902</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905759921</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477247</v>
+        <v>18952.41620477236</v>
       </c>
       <c r="L4" t="n">
         <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189635</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,28 +26476,28 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-627151.6982391095</v>
+        <v>-627151.6982391094</v>
       </c>
       <c r="C6" t="n">
-        <v>-37183.81902456481</v>
+        <v>-37183.81902456476</v>
       </c>
       <c r="D6" t="n">
-        <v>-37183.81902456483</v>
+        <v>-37183.8190245648</v>
       </c>
       <c r="E6" t="n">
-        <v>-441972.0792342196</v>
+        <v>-442069.5383601918</v>
       </c>
       <c r="F6" t="n">
-        <v>83187.95724267642</v>
+        <v>83090.49811670424</v>
       </c>
       <c r="G6" t="n">
-        <v>83187.95724267648</v>
+        <v>83090.49811670439</v>
       </c>
       <c r="H6" t="n">
-        <v>83187.95724267636</v>
+        <v>83090.49811670424</v>
       </c>
       <c r="I6" t="n">
-        <v>83187.95724267645</v>
+        <v>83090.49811670427</v>
       </c>
       <c r="J6" t="n">
-        <v>-93235.26194991653</v>
+        <v>-93332.72107588868</v>
       </c>
       <c r="K6" t="n">
-        <v>23326.73176753031</v>
+        <v>23308.23802959618</v>
       </c>
       <c r="L6" t="n">
-        <v>53469.80466667531</v>
+        <v>53469.80466667532</v>
       </c>
       <c r="M6" t="n">
-        <v>-70988.30376629478</v>
+        <v>-70988.30376629491</v>
       </c>
       <c r="N6" t="n">
         <v>63812.71146754232</v>
@@ -26561,7 +26561,7 @@
         <v>63812.71146754232</v>
       </c>
       <c r="P6" t="n">
-        <v>19650.10616469666</v>
+        <v>19650.10616469684</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108374</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855689</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>249.5454291833292</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>232.0844792908557</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.6907264515308</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>21.87414536972182</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>58.61978731734587</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>81.63609966997424</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,10 +27789,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>90.04734679045239</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>92.2547905758147</v>
       </c>
     </row>
     <row r="8">
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>177.7978447627221</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>113.077707148459</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-4.776004764155845e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>3.867146602942739e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.701199264265597e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31045,7 +31045,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31054,34 +31054,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,40 +31118,40 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
@@ -31160,7 +31160,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31221,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31370,7 +31370,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,7 +31382,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>111.7343803072865</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31604,13 +31604,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423973</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576417</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31841,13 +31841,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>334.9905423702617</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31856,19 +31856,19 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>100.5826050876808</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32078,16 +32078,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>275.92646717522</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>446.4811309968916</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32096,16 +32096,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,25 +32312,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>36.58287017735226</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>340.8546090773501</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,19 +32549,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>137.5146610482115</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>450.4683412620573</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32570,16 +32570,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32789,16 +32789,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>213.9849829127209</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,19 +33023,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>70.77739093025025</v>
       </c>
       <c r="M27" t="n">
-        <v>213.9849829127209</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,16 +33190,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -33269,28 +33269,28 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>143.8894692628929</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,16 +33436,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33500,19 +33500,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>256.9673149466854</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>91.84465193776708</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33521,13 +33521,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,16 +33664,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>83.78157095344747</v>
       </c>
       <c r="L36" t="n">
-        <v>147.8809216101174</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,16 +33901,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,19 +33971,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>147.8809216101174</v>
+        <v>263.8310857221907</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33995,13 +33995,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,25 +34120,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34220,10 +34220,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>243.0697638780551</v>
       </c>
       <c r="O42" t="n">
-        <v>340.8546090773502</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34232,13 +34232,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,16 +34375,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34702,22 +34702,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>567.2765078938467</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
@@ -35504,13 +35504,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>285.0709663132877</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35662,13 +35662,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>402.5502652134396</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>794.4817932571118</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
@@ -35744,10 +35744,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>35.83627885109441</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>664.4256389053317</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>369.8006265717965</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>774.0393710900389</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>537.5560127407025</v>
+        <v>273.9327574912491</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>303.0633564538352</v>
       </c>
       <c r="M27" t="n">
-        <v>537.5560127407025</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.9849829127205</v>
+        <v>29.38231595344772</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412246</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043169</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37087,10 +37087,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>489.2532804702704</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>343.1107267700522</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414415</v>
@@ -37306,16 +37306,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>210.4053689916671</v>
       </c>
       <c r="L36" t="n">
-        <v>380.1668871337024</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37543,19 +37543,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>380.1668871337024</v>
+        <v>496.1170512457757</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,10 +37868,10 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>591.0704261382754</v>
       </c>
       <c r="O42" t="n">
-        <v>592.1206839096353</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,19 +38017,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>102.7627113412403</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
